--- a/docs/ValueSet-ncit-special-codes-vs.xlsx
+++ b/docs/ValueSet-ncit-special-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T14:36:01+00:00</t>
+    <t>2025-09-18T19:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ncit-special-codes-vs.xlsx
+++ b/docs/ValueSet-ncit-special-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T19:56:42+00:00</t>
+    <t>2025-09-18T20:45:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -144,7 +144,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl</t>
+    <t>http://purl.obolibrary.org/obo/ncit.owl</t>
   </si>
 </sst>
 </file>

--- a/docs/ValueSet-ncit-special-codes-vs.xlsx
+++ b/docs/ValueSet-ncit-special-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T20:45:23+00:00</t>
+    <t>2025-09-22T20:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ncit-special-codes-vs.xlsx
+++ b/docs/ValueSet-ncit-special-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T20:20:13+00:00</t>
+    <t>2025-09-23T20:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,43 +99,43 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>C156445</t>
+    <t>NCIT:C156445</t>
   </si>
   <si>
     <t>Derived Cell Line</t>
   </si>
   <si>
-    <t>156440</t>
+    <t>NCIT:156440</t>
   </si>
   <si>
     <t>Metastatic Tumor Sample</t>
   </si>
   <si>
-    <t>156441</t>
+    <t>NCIT:156441</t>
   </si>
   <si>
     <t>Sample Derived from New Primary</t>
   </si>
   <si>
-    <t>164032</t>
+    <t>NCIT:164032</t>
   </si>
   <si>
     <t>Tumor-Adjacent Normal Specimen</t>
   </si>
   <si>
-    <t>C18009</t>
+    <t>NCIT:C18009</t>
   </si>
   <si>
     <t>Tumor Tissue</t>
   </si>
   <si>
-    <t>C162623</t>
+    <t>NCIT:C162623</t>
   </si>
   <si>
     <t>Normal Tissue Segment</t>
   </si>
   <si>
-    <t>C156443</t>
+    <t>NCIT:C156443</t>
   </si>
   <si>
     <t>Cell Line-Derived Xenograft</t>

--- a/docs/ValueSet-ncit-special-codes-vs.xlsx
+++ b/docs/ValueSet-ncit-special-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:31:36+00:00</t>
+    <t>2025-09-23T20:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ncit-special-codes-vs.xlsx
+++ b/docs/ValueSet-ncit-special-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:38:56+00:00</t>
+    <t>2026-01-20T16:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ncit-special-codes-vs.xlsx
+++ b/docs/ValueSet-ncit-special-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T16:06:26+00:00</t>
+    <t>2026-01-22T16:34:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
